--- a/data_voor_swing/gebiedsdefinities/gemeente2018.xlsx
+++ b/data_voor_swing/gebiedsdefinities/gemeente2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\data_voor_swing\gebiedsdefinities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260DE130-4383-42CC-B1BE-0D0B9FD73DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345B3620-193C-43ED-ABCD-B778AF871DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1245" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gemeente2018" sheetId="1" r:id="rId1"/>
@@ -1015,16 +1015,16 @@
     <t>Niet te lokaliseren - Vlaanderen</t>
   </si>
   <si>
-    <t>sequencenr</t>
-  </si>
-  <si>
-    <t>geoitem code</t>
-  </si>
-  <si>
-    <t>short name</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>volgnr</t>
+  </si>
+  <si>
+    <t>gebiedscode</t>
+  </si>
+  <si>
+    <t>naam_kort</t>
+  </si>
+  <si>
+    <t>naam</t>
   </si>
 </sst>
 </file>
